--- a/DatabaseExcel/Lop.xlsx
+++ b/DatabaseExcel/Lop.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\QuanLyDiem\DatabaseExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITT\QuanLyDiem\DatabaseExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8467FF0F-3D30-4C1E-98DD-CBBBA46BE2EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{447FD9BA-61B1-4497-9C8F-9C567F43C498}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,22 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>l01</t>
-  </si>
-  <si>
-    <t>l02</t>
-  </si>
-  <si>
-    <t>l03</t>
-  </si>
-  <si>
-    <t>l04</t>
-  </si>
-  <si>
-    <t>l05</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>16TCLC3</t>
   </si>
@@ -62,25 +46,28 @@
     <t>16TCLC2</t>
   </si>
   <si>
-    <t>GV001</t>
-  </si>
-  <si>
-    <t>GV002</t>
-  </si>
-  <si>
-    <t>GV003</t>
-  </si>
-  <si>
-    <t>GV006</t>
-  </si>
-  <si>
     <t>CNTT</t>
+  </si>
+  <si>
+    <t>LSH001</t>
+  </si>
+  <si>
+    <t>LSH002</t>
+  </si>
+  <si>
+    <t>LSH003</t>
+  </si>
+  <si>
+    <t>LSH004</t>
+  </si>
+  <si>
+    <t>LSH005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,83 +412,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9728082C-97A9-4544-A3F2-41CE4333C80E}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseExcel/Lop.xlsx
+++ b/DatabaseExcel/Lop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITT\QuanLyDiem\DatabaseExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\QuanLyDiem\DatabaseExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B0943D-690E-4CF1-BB96-04A1258BADF7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>16TCLC3</t>
   </si>
@@ -62,12 +58,42 @@
   </si>
   <si>
     <t>LSH005</t>
+  </si>
+  <si>
+    <t>LSH006</t>
+  </si>
+  <si>
+    <t>LSH007</t>
+  </si>
+  <si>
+    <t>LSH008</t>
+  </si>
+  <si>
+    <t>LSH009</t>
+  </si>
+  <si>
+    <t>LSH010</t>
+  </si>
+  <si>
+    <t>18T1</t>
+  </si>
+  <si>
+    <t>18T2</t>
+  </si>
+  <si>
+    <t>18T3</t>
+  </si>
+  <si>
+    <t>17CLC1</t>
+  </si>
+  <si>
+    <t>17T2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +502,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
